--- a/assets/sellerfile/category/Daily_WorkSheet.xlsx
+++ b/assets/sellerfile/category/Daily_WorkSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -85,13 +85,49 @@
   </si>
   <si>
     <t>puskar</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>search functionality pending</t>
+  </si>
+  <si>
+    <t>customer home  page</t>
+  </si>
+  <si>
+    <t>above list in sear functionality is pending</t>
+  </si>
+  <si>
+    <t>customer register and login , forgotpassword,resetpassword</t>
+  </si>
+  <si>
+    <t>product and category page dynamic</t>
+  </si>
+  <si>
+    <t>cart page , add wishlist and list whishlist  completed</t>
+  </si>
+  <si>
+    <t>customer profile and api calls and two  sheet issues and  billing address</t>
+  </si>
+  <si>
+    <t>myaccount and changpassword edit profile and update profile</t>
+  </si>
+  <si>
+    <t>issue  list changes</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>cart in delivery payment  and api pending  and home page heade pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +159,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -410,6 +461,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,6 +501,12 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +819,8 @@
   <dimension ref="A2:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -762,7 +830,7 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="29" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -814,30 +882,33 @@
       <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="H7" s="38" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="46">
+      <c r="A10" s="51">
         <v>42909</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5"/>
@@ -851,10 +922,13 @@
       <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="H10" s="39" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="47"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -862,10 +936,10 @@
       <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="46">
+      <c r="A12" s="51">
         <v>42910</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5"/>
@@ -875,8 +949,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="47"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -884,10 +958,10 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="46">
+      <c r="A14" s="51">
         <v>42911</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="5"/>
@@ -897,30 +971,34 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="47"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="46">
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="51">
         <v>42912</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -928,87 +1006,96 @@
       <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="46">
+      <c r="A18" s="51">
         <v>42913</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="46">
+      <c r="A20" s="51">
         <v>42914</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="5"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="46">
+      <c r="A22" s="51">
         <v>42915</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="F22" s="41" t="s">
+        <v>31</v>
+      </c>
       <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="46">
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="51">
         <v>42916</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="47"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
@@ -1016,21 +1103,23 @@
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="46">
+      <c r="A26" s="51">
         <v>42917</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="47"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -1038,10 +1127,10 @@
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="46">
+      <c r="A28" s="51">
         <v>42918</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="37"/>
@@ -1050,20 +1139,22 @@
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="47"/>
-      <c r="B29" s="39"/>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="52"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
+      <c r="F29" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="46">
+      <c r="A30" s="51">
         <v>42919</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="37"/>
@@ -1073,8 +1164,8 @@
       <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="47"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
@@ -1082,21 +1173,23 @@
       <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46">
+      <c r="A32" s="51">
         <v>42920</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" s="12" customFormat="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="13"/>
@@ -1104,10 +1197,10 @@
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="46">
+      <c r="A34" s="51">
         <v>42921</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="5"/>
@@ -1117,8 +1210,8 @@
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="47"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
@@ -1126,10 +1219,10 @@
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="46">
+      <c r="A36" s="51">
         <v>42922</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="5"/>
@@ -1139,8 +1232,8 @@
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="47"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="1"/>
@@ -1148,10 +1241,10 @@
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="46">
+      <c r="A38" s="51">
         <v>42923</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="5"/>
@@ -1161,8 +1254,8 @@
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="47"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="1"/>
@@ -1170,10 +1263,10 @@
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="46">
+      <c r="A40" s="51">
         <v>42924</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="5"/>
@@ -1183,8 +1276,8 @@
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="47"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="1"/>
@@ -1192,10 +1285,10 @@
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="46">
+      <c r="A42" s="51">
         <v>42925</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="36"/>
@@ -1205,8 +1298,8 @@
       <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="47"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
@@ -1214,10 +1307,10 @@
       <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="46">
+      <c r="A44" s="51">
         <v>42926</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="36"/>
@@ -1227,8 +1320,8 @@
       <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="47"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -1236,10 +1329,10 @@
       <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="46">
+      <c r="A46" s="51">
         <v>42927</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="9"/>
@@ -1249,8 +1342,8 @@
       <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="47"/>
-      <c r="B47" s="39"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="18"/>
@@ -1258,10 +1351,10 @@
       <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="46">
+      <c r="A48" s="51">
         <v>42928</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="5"/>
@@ -1271,8 +1364,8 @@
       <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="47"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="32"/>
@@ -1280,10 +1373,10 @@
       <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="46">
+      <c r="A50" s="51">
         <v>42929</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="5"/>
@@ -1293,8 +1386,8 @@
       <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="47"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="32"/>
@@ -1302,10 +1395,10 @@
       <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="46">
+      <c r="A52" s="51">
         <v>42930</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="5"/>
@@ -1315,8 +1408,8 @@
       <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="47"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="32"/>
@@ -1324,10 +1417,10 @@
       <c r="G53" s="23"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="46">
+      <c r="A54" s="51">
         <v>42931</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="5"/>
@@ -1337,8 +1430,8 @@
       <c r="G54" s="23"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="47"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="32"/>
@@ -1346,10 +1439,10 @@
       <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="46">
+      <c r="A56" s="51">
         <v>42932</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="5"/>
@@ -1359,8 +1452,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="47"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="24"/>
@@ -1368,10 +1461,10 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="46">
+      <c r="A58" s="51">
         <v>42933</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="33"/>
@@ -1381,8 +1474,8 @@
       <c r="G58" s="33"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="47"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
@@ -1390,10 +1483,10 @@
       <c r="G59" s="33"/>
     </row>
     <row r="60" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A60" s="46">
+      <c r="A60" s="51">
         <v>42934</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="5"/>
@@ -1403,8 +1496,8 @@
       <c r="G60" s="23"/>
     </row>
     <row r="61" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A61" s="47"/>
-      <c r="B61" s="39"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="32"/>
@@ -1412,10 +1505,10 @@
       <c r="G61" s="23"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="46">
+      <c r="A62" s="51">
         <v>42935</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="5"/>
@@ -1425,8 +1518,8 @@
       <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="47"/>
-      <c r="B63" s="39"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="26"/>
       <c r="D63" s="5"/>
       <c r="E63" s="27"/>
@@ -1434,10 +1527,10 @@
       <c r="G63" s="23"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="46">
+      <c r="A64" s="51">
         <v>42936</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="5"/>
@@ -1447,8 +1540,8 @@
       <c r="G64" s="23"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="47"/>
-      <c r="B65" s="39"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="27"/>
@@ -1456,10 +1549,10 @@
       <c r="G65" s="23"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="46">
+      <c r="A66" s="51">
         <v>42937</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="5"/>
@@ -1469,8 +1562,8 @@
       <c r="G66" s="23"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="47"/>
-      <c r="B67" s="39"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="27"/>
@@ -1478,10 +1571,10 @@
       <c r="G67" s="23"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="46">
+      <c r="A68" s="51">
         <v>42938</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="5"/>
@@ -1491,8 +1584,8 @@
       <c r="G68" s="23"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="47"/>
-      <c r="B69" s="39"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="27"/>
@@ -1500,10 +1593,10 @@
       <c r="G69" s="23"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="46">
+      <c r="A70" s="51">
         <v>42939</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="33"/>
@@ -1513,8 +1606,8 @@
       <c r="G70" s="33"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="47"/>
-      <c r="B71" s="39"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
@@ -1522,10 +1615,10 @@
       <c r="G71" s="33"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="46">
+      <c r="A72" s="51">
         <v>42940</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="33"/>
@@ -1535,8 +1628,8 @@
       <c r="G72" s="33"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="47"/>
-      <c r="B73" s="39"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
@@ -1544,10 +1637,10 @@
       <c r="G73" s="33"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="46">
+      <c r="A74" s="51">
         <v>42941</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="5"/>
@@ -1557,8 +1650,8 @@
       <c r="G74" s="23"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="47"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="32"/>
@@ -1566,10 +1659,10 @@
       <c r="G75" s="23"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="46">
+      <c r="A76" s="51">
         <v>42942</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="5"/>
@@ -1579,8 +1672,8 @@
       <c r="G76" s="23"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="47"/>
-      <c r="B77" s="39"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="32"/>
@@ -1588,10 +1681,10 @@
       <c r="G77" s="23"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="46">
+      <c r="A78" s="51">
         <v>42943</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="5"/>
@@ -1601,8 +1694,8 @@
       <c r="G78" s="23"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="47"/>
-      <c r="B79" s="39"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="32"/>
@@ -1610,10 +1703,10 @@
       <c r="G79" s="30"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="46">
+      <c r="A80" s="51">
         <v>42944</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="5"/>
@@ -1623,8 +1716,8 @@
       <c r="G80" s="30"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="47"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="32"/>
@@ -2013,6 +2106,10 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B32:B33"/>
@@ -2029,11 +2126,17 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="A8:G9"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -2046,17 +2149,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B76:B77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B60:B61"/>
@@ -2066,6 +2158,7 @@
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/sellerfile/category/Daily_WorkSheet.xlsx
+++ b/assets/sellerfile/category/Daily_WorkSheet.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Mar-17" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feb-17'!$A$10:$G$123</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -69,65 +72,183 @@
     <t>Assigned By</t>
   </si>
   <si>
-    <t>Vasudevareddy reddem</t>
-  </si>
-  <si>
-    <t>June 22 ,2017</t>
-  </si>
-  <si>
-    <t>Php Developer</t>
-  </si>
-  <si>
-    <t>Customer Home Page</t>
-  </si>
-  <si>
-    <t>1.category list dynamic,  listing order and  single product page,search functionality  and  location search</t>
-  </si>
-  <si>
-    <t>puskar</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>search functionality pending</t>
-  </si>
-  <si>
-    <t>customer home  page</t>
-  </si>
-  <si>
-    <t>above list in sear functionality is pending</t>
-  </si>
-  <si>
-    <t>customer register and login , forgotpassword,resetpassword</t>
-  </si>
-  <si>
-    <t>product and category page dynamic</t>
-  </si>
-  <si>
-    <t>cart page , add wishlist and list whishlist  completed</t>
-  </si>
-  <si>
-    <t>customer profile and api calls and two  sheet issues and  billing address</t>
-  </si>
-  <si>
-    <t>myaccount and changpassword edit profile and update profile</t>
-  </si>
-  <si>
-    <t>issue  list changes</t>
-  </si>
-  <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>cart in delivery payment  and api pending  and home page heade pending</t>
+    <t xml:space="preserve">Cartin Seller </t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Faisal Rizwan</t>
+  </si>
+  <si>
+    <t>Automation Engineer</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Optional Leave</t>
+  </si>
+  <si>
+    <t>Optional leave</t>
+  </si>
+  <si>
+    <t>11:35. AM</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>1. Testing</t>
+  </si>
+  <si>
+    <t>Cartin seller, Automation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Retested Seller Part Manually
+(In Request Service tab , Enqury Form has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">submit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Button)
+2. written code for "How to
+ write File in Excel" using Automation
+3. Written :How To Take screen shots Using selenium"
+4. installation of Testng and setup to Eclipse
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Retested Seller Part Manually and found some 
+bugs which has been updated.
+May be because new Feature is Added due to which some features may be broken
+2.Pending automation part has been done.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Ca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtin Seller, Automation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Retested Seller Part Manually and found some 
+bugs which has been updated and UI bugs are fixed
+May be because new Feature is Added due to which some features may be broken
+2. some   of the automation part has been done.                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">     In  Automation part, Installed maven and 
+added dependency</t>
+  </si>
+  <si>
+    <t>some functionality bugs have been fixed and re tested.
+Some selenium pending works are done.
+1 UI issue is there in User profile</t>
+  </si>
+  <si>
+    <t>Cartin Seller, Automation</t>
+  </si>
+  <si>
+    <t>functionality bugs have been fixed and 1 UI issue is 
+there
+autmation part has been done</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Written Automation code for seller part
+</t>
+  </si>
+  <si>
+    <t>17.30.00 AM</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Manually tested Customer part
+Registration,change password,Reset password,Edit Profile, and Update profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Written Automation code for seller part of Registration Page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Written Automation code for seller part of Request for service page, and to print the content of the body part of the site.
+</t>
+  </si>
+  <si>
+    <t>Wtitten code for Automation</t>
+  </si>
+  <si>
+    <t>Wtitten code for Automation and tested cartinhour manually</t>
+  </si>
+  <si>
+    <t>Cartin Seller, Inventory
+Manual</t>
+  </si>
+  <si>
+    <t>Tested Inventory and Seller portal where Functionality and Ui bugs are found</t>
+  </si>
+  <si>
+    <t>Tested Inventory and Seller portal where Functionality and Ui bugs are found and Automation to find broken links</t>
+  </si>
+  <si>
+    <t>July 1.9,2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,15 +286,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -393,16 +506,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,17 +571,62 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,17 +651,8 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J121"/>
+  <dimension ref="A2:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,9 +974,10 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -838,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -846,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -854,115 +1001,129 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="51">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="55">
+        <v>42908</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="16">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="56"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="55">
         <v>42909</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="52"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="51">
+      <c r="C12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="56"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="55">
         <v>42910</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B14" s="57" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="52"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="51">
-        <v>42911</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>12</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -971,1194 +1132,1358 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="52"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="51">
+      <c r="A15" s="56"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="55">
+        <v>42911</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="55">
         <v>42912</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="52"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="51">
+      <c r="C18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="56"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="150">
+      <c r="A20" s="55">
         <v>42913</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B20" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="1" t="s">
+      <c r="C20" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="52"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="42" t="s">
+      <c r="G20" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="56"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" ht="90">
+      <c r="A22" s="55">
+        <v>42914</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="51">
-        <v>42914</v>
-      </c>
-      <c r="B20" s="43" t="s">
+      <c r="F22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" s="45" customFormat="1" ht="105">
+      <c r="A24" s="55">
+        <v>42915</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="44">
+        <v>10</v>
+      </c>
+      <c r="D24" s="44">
+        <v>6</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="56"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="40">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="D25" s="44">
+        <v>6</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60">
+      <c r="A26" s="55">
+        <v>42916</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D26" s="49">
+        <v>6</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" s="45" customFormat="1" ht="60">
+      <c r="A28" s="55">
+        <v>42917</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="53">
+        <v>0.40625</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="56"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="55">
+        <v>42918</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="56"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" s="45" customFormat="1" ht="30">
+      <c r="A32" s="55">
+        <v>42919</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="53">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="1:7" ht="45">
+      <c r="A34" s="55">
+        <v>42920</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="45">
+      <c r="A35" s="56"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60">
+      <c r="A36" s="55">
+        <v>42921</v>
+      </c>
+      <c r="B36" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="52"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="51">
-        <v>42915</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="52"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="51">
-        <v>42916</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="52"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="51">
-        <v>42917</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="52"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="51">
-        <v>42918</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75">
-      <c r="A29" s="52"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="51">
-        <v>42919</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="52"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="51">
-        <v>42920</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14" t="s">
+      <c r="C36" s="5">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" s="12" customFormat="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="51">
-        <v>42921</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="52"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="51">
-        <v>42922</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="52"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="23"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="51">
-        <v>42923</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>10</v>
+      <c r="A38" s="55">
+        <v>42922</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>9</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="1"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="52"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="51">
-        <v>42924</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="23"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="55">
+        <v>42923</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="52"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="23"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="51">
+      <c r="A42" s="55">
+        <v>42924</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="56"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="55">
         <v>42925</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B44" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="52"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="51">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="56"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="55">
         <v>42926</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B46" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="52"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="51">
-        <v>42927</v>
-      </c>
-      <c r="B46" s="43" t="s">
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="56"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="55">
+        <v>42934</v>
+      </c>
+      <c r="B48" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="52"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="51">
-        <v>42928</v>
-      </c>
-      <c r="B48" s="43" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="56"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="9">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45">
+      <c r="A50" s="55">
+        <v>42935</v>
+      </c>
+      <c r="B50" s="57" t="s">
         <v>8</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="52"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="23"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="51">
-        <v>42929</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>9</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="23"/>
+      <c r="E50" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="52"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="32"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="E51" s="31"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="23"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="51">
-        <v>42930</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>10</v>
+      <c r="A52" s="55">
+        <v>42936</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>9</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="32"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="23"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="52"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="32"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="23"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="51">
-        <v>42931</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>11</v>
+      <c r="A54" s="55">
+        <v>42937</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>10</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="32"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="23"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="52"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="32"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="23"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="51">
-        <v>42932</v>
-      </c>
-      <c r="B56" s="43" t="s">
+      <c r="A56" s="55">
+        <v>42938</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="56"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="55">
+        <v>42939</v>
+      </c>
+      <c r="B58" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="52"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="51">
-        <v>42933</v>
-      </c>
-      <c r="B58" s="43" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="56"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="55">
+        <v>42940</v>
+      </c>
+      <c r="B60" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="52"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-    </row>
-    <row r="60" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A60" s="51">
-        <v>42934</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
-      <c r="G60" s="23"/>
-    </row>
-    <row r="61" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A61" s="52"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="G60" s="32"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="56"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="32"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="23"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="51">
-        <v>42935</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>8</v>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+    </row>
+    <row r="62" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A62" s="55">
+        <v>42934</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="52"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="26"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A63" s="56"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="27"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="23"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="51">
-        <v>42936</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>9</v>
+      <c r="A64" s="55">
+        <v>42935</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>8</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="31"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="23"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="52"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="23"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="51">
-        <v>42937</v>
-      </c>
-      <c r="B66" s="43" t="s">
-        <v>10</v>
+      <c r="A66" s="55">
+        <v>42936</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>9</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="23"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="52"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="58"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="26"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="23"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="51">
-        <v>42938</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>11</v>
+      <c r="A68" s="55">
+        <v>42937</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>10</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="23"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="52"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="27"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="23"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="51">
+      <c r="A70" s="55">
+        <v>42938</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="56"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="55">
         <v>42939</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B72" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="52"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="51">
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="56"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="55">
         <v>42940</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B74" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="52"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="51">
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="56"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="55">
         <v>42941</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B76" s="57" t="s">
         <v>15</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="23"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="52"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="23"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="51">
-        <v>42942</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>8</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="32"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="23"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="52"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="32"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="23"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="51">
-        <v>42943</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>9</v>
+      <c r="A78" s="55">
+        <v>42942</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>8</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="23"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="52"/>
-      <c r="B79" s="44"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="58"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="32"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="30"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="51">
-        <v>42944</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>10</v>
+      <c r="A80" s="55">
+        <v>42943</v>
+      </c>
+      <c r="B80" s="57" t="s">
+        <v>9</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="30"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="52"/>
-      <c r="B81" s="44"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="32"/>
+      <c r="E81" s="31"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="23"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="35"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="55">
+        <v>42944</v>
+      </c>
+      <c r="B82" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="23"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="35"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="58"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="32"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="23"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="35"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="35"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="35"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="35"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="35"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="28"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="35"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="28"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="35"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="28"/>
+      <c r="G90" s="27"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="35"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="28"/>
+      <c r="G91" s="27"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="35"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="28"/>
+      <c r="G92" s="27"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="35"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="28"/>
+      <c r="G93" s="27"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="35"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="28"/>
+      <c r="G94" s="27"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="35"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="28"/>
+      <c r="G95" s="27"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="35"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="28"/>
+      <c r="G96" s="27"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="35"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="28"/>
+      <c r="G97" s="27"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="35"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="27"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="35"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="27"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="35"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="35"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="35"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="28"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="35"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="28"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="35"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="28"/>
+      <c r="G104" s="27"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="35"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="28"/>
+      <c r="G105" s="27"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="35"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="28"/>
+      <c r="G106" s="27"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="35"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="28"/>
+      <c r="G107" s="27"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="35"/>
-      <c r="B108" s="32"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="28"/>
+      <c r="G108" s="27"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="35"/>
-      <c r="B109" s="32"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="28"/>
+      <c r="G109" s="27"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="35"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="28"/>
+      <c r="G110" s="27"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="35"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="28"/>
+      <c r="G111" s="27"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="35"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="27"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="35"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="27"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="35"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="35"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="35"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="28"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="35"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="28"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="35"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="28"/>
+      <c r="G118" s="27"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="35"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="28"/>
+      <c r="G119" s="27"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="35"/>
-      <c r="B120" s="32"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="28"/>
+      <c r="G120" s="27"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="35"/>
-      <c r="B121" s="32"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="28"/>
+      <c r="G121" s="27"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="34"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="27"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="34"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A52:A53"/>
+  <autoFilter ref="A10:G123"/>
+  <mergeCells count="75">
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A8:G9"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A82:A83"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A8:G9"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A70:A71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/sellerfile/category/Daily_WorkSheet.xlsx
+++ b/assets/sellerfile/category/Daily_WorkSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -241,7 +241,7 @@
     <t>Tested Inventory and Seller portal where Functionality and Ui bugs are found and Automation to find broken links</t>
   </si>
   <si>
-    <t>July 1.9,2017</t>
+    <t>July 1.10,2017</t>
   </si>
 </sst>
 </file>
@@ -621,35 +621,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,8 +965,8 @@
   <dimension ref="A2:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="7" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1031,28 +1031,28 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="55">
+      <c r="A10" s="63">
         <v>42908</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="16">
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="56"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="65"/>
       <c r="C11" s="5">
         <v>0.41666666666666669</v>
@@ -1091,10 +1091,10 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="55">
+      <c r="A12" s="63">
         <v>42909</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -1110,8 +1110,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -1119,10 +1119,10 @@
       <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="55">
+      <c r="A14" s="63">
         <v>42910</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5"/>
@@ -1132,8 +1132,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="56"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="38" t="s">
         <v>21</v>
       </c>
@@ -1147,10 +1147,10 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="55">
+      <c r="A16" s="63">
         <v>42911</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -1166,8 +1166,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="56"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1175,10 +1175,10 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="55">
+      <c r="A18" s="63">
         <v>42912</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -1194,8 +1194,8 @@
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="56"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="40"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -1203,10 +1203,10 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="150">
-      <c r="A20" s="55">
+      <c r="A20" s="63">
         <v>42913</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="9">
@@ -1226,8 +1226,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="56"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
@@ -1235,10 +1235,10 @@
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="90">
-      <c r="A22" s="55">
+      <c r="A22" s="63">
         <v>42914</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="8">
@@ -1258,8 +1258,8 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="56"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
@@ -1267,10 +1267,10 @@
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" s="45" customFormat="1" ht="105">
-      <c r="A24" s="55">
+      <c r="A24" s="63">
         <v>42915</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="44">
@@ -1290,8 +1290,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="56"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="40">
         <v>0.41250000000000003</v>
       </c>
@@ -1309,10 +1309,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="60">
-      <c r="A26" s="55">
+      <c r="A26" s="63">
         <v>42916</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="5">
@@ -1332,8 +1332,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="56"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
@@ -1341,10 +1341,10 @@
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" s="45" customFormat="1" ht="60">
-      <c r="A28" s="55">
+      <c r="A28" s="63">
         <v>42917</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="53">
@@ -1364,8 +1364,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="56"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
@@ -1373,10 +1373,10 @@
       <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="55">
+      <c r="A30" s="63">
         <v>42918</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="36"/>
@@ -1386,8 +1386,8 @@
       <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="56"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="36" t="s">
         <v>21</v>
       </c>
@@ -1399,10 +1399,10 @@
       <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" s="45" customFormat="1" ht="30">
-      <c r="A32" s="55">
+      <c r="A32" s="63">
         <v>42919</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="53">
@@ -1422,8 +1422,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="56"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
@@ -1431,10 +1431,10 @@
       <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:7" ht="45">
-      <c r="A34" s="55">
+      <c r="A34" s="63">
         <v>42920</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="11">
@@ -1454,8 +1454,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="12" customFormat="1" ht="45">
-      <c r="A35" s="56"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="13" t="s">
@@ -1469,10 +1469,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="60">
-      <c r="A36" s="55">
+      <c r="A36" s="63">
         <v>42921</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="5">
@@ -1492,8 +1492,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="56"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
@@ -1501,10 +1501,10 @@
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="55">
+      <c r="A38" s="63">
         <v>42922</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="5"/>
@@ -1514,8 +1514,8 @@
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="56"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="5">
         <v>0.52500000000000002</v>
       </c>
@@ -1533,10 +1533,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="55">
+      <c r="A40" s="63">
         <v>42923</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="5">
@@ -1556,8 +1556,8 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="56"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="1"/>
@@ -1565,10 +1565,10 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="55">
+      <c r="A42" s="63">
         <v>42924</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="5"/>
@@ -1578,8 +1578,8 @@
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="56"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="1"/>
@@ -1587,10 +1587,10 @@
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="55">
+      <c r="A44" s="63">
         <v>42925</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="35"/>
@@ -1600,8 +1600,8 @@
       <c r="G44" s="35"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="56"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -1609,10 +1609,10 @@
       <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="55">
+      <c r="A46" s="63">
         <v>42926</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="35"/>
@@ -1622,8 +1622,8 @@
       <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="56"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -1631,10 +1631,10 @@
       <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="55">
+      <c r="A48" s="63">
         <v>42934</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="9"/>
@@ -1644,8 +1644,8 @@
       <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" ht="30">
-      <c r="A49" s="56"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="9">
         <v>0.44236111111111115</v>
       </c>
@@ -1663,10 +1663,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="45">
-      <c r="A50" s="55">
+      <c r="A50" s="63">
         <v>42935</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="5"/>
@@ -1682,8 +1682,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="56"/>
-      <c r="B51" s="58"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="5">
         <v>0.40972222222222227</v>
       </c>
@@ -1695,10 +1695,10 @@
       <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="55">
+      <c r="A52" s="63">
         <v>42936</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="5"/>
@@ -1708,8 +1708,8 @@
       <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="56"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="31"/>
@@ -1717,10 +1717,10 @@
       <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="55">
+      <c r="A54" s="63">
         <v>42937</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5"/>
@@ -1729,20 +1729,30 @@
       <c r="F54" s="7"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="56"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="22"/>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="64"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="55">
+      <c r="A56" s="63">
         <v>42938</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="5"/>
@@ -1752,8 +1762,8 @@
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="56"/>
-      <c r="B57" s="58"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="31"/>
@@ -1761,10 +1771,10 @@
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="55">
+      <c r="A58" s="63">
         <v>42939</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="5"/>
@@ -1774,8 +1784,8 @@
       <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="56"/>
-      <c r="B59" s="58"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="23"/>
@@ -1783,10 +1793,10 @@
       <c r="G59" s="23"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="55">
+      <c r="A60" s="63">
         <v>42940</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="32"/>
@@ -1796,8 +1806,8 @@
       <c r="G60" s="32"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="56"/>
-      <c r="B61" s="58"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
@@ -1805,10 +1815,10 @@
       <c r="G61" s="32"/>
     </row>
     <row r="62" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A62" s="55">
+      <c r="A62" s="63">
         <v>42934</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="5"/>
@@ -1818,8 +1828,8 @@
       <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A63" s="56"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="31"/>
@@ -1827,10 +1837,10 @@
       <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="55">
+      <c r="A64" s="63">
         <v>42935</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="5"/>
@@ -1840,8 +1850,8 @@
       <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="56"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="25"/>
       <c r="D65" s="5"/>
       <c r="E65" s="26"/>
@@ -1849,10 +1859,10 @@
       <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="55">
+      <c r="A66" s="63">
         <v>42936</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="5"/>
@@ -1862,8 +1872,8 @@
       <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="56"/>
-      <c r="B67" s="58"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="26"/>
@@ -1871,10 +1881,10 @@
       <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="55">
+      <c r="A68" s="63">
         <v>42937</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="5"/>
@@ -1884,8 +1894,8 @@
       <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="56"/>
-      <c r="B69" s="58"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="26"/>
@@ -1893,10 +1903,10 @@
       <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="55">
+      <c r="A70" s="63">
         <v>42938</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="5"/>
@@ -1906,8 +1916,8 @@
       <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="56"/>
-      <c r="B71" s="58"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="26"/>
@@ -1915,10 +1925,10 @@
       <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="55">
+      <c r="A72" s="63">
         <v>42939</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="32"/>
@@ -1928,8 +1938,8 @@
       <c r="G72" s="32"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="56"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
@@ -1937,10 +1947,10 @@
       <c r="G73" s="32"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="55">
+      <c r="A74" s="63">
         <v>42940</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="32"/>
@@ -1950,8 +1960,8 @@
       <c r="G74" s="32"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="56"/>
-      <c r="B75" s="58"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
@@ -1959,10 +1969,10 @@
       <c r="G75" s="32"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="55">
+      <c r="A76" s="63">
         <v>42941</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="5"/>
@@ -1972,8 +1982,8 @@
       <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="56"/>
-      <c r="B77" s="58"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="31"/>
@@ -1981,10 +1991,10 @@
       <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="55">
+      <c r="A78" s="63">
         <v>42942</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="5"/>
@@ -1994,8 +2004,8 @@
       <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="56"/>
-      <c r="B79" s="58"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="56"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="31"/>
@@ -2003,10 +2013,10 @@
       <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="55">
+      <c r="A80" s="63">
         <v>42943</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="5"/>
@@ -2016,8 +2026,8 @@
       <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="56"/>
-      <c r="B81" s="58"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="31"/>
@@ -2025,10 +2035,10 @@
       <c r="G81" s="29"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="55">
+      <c r="A82" s="63">
         <v>42944</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="5"/>
@@ -2038,8 +2048,8 @@
       <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="56"/>
-      <c r="B83" s="58"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="31"/>
@@ -2409,16 +2419,55 @@
   </sheetData>
   <autoFilter ref="A10:G123"/>
   <mergeCells count="75">
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="A8:G9"/>
@@ -2435,55 +2484,16 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B68:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
